--- a/Pruebas de Usuario/Analisis/Analisis_completos/Evaluación VR Mandos y Guantes (respuestas).xlsx
+++ b/Pruebas de Usuario/Analisis/Analisis_completos/Evaluación VR Mandos y Guantes (respuestas).xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Cole\4\Tfg\TFG-2324-InteraccionVR\Pruebas de Usuario\Analisis\Analisis_completos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FF561-317C-4B81-A58D-721A6FAE675E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0EEC8D-0C88-4865-B404-49D1BDB8679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="207">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -665,6 +678,12 @@
   </si>
   <si>
     <t>Cuenta de Edad</t>
+  </si>
+  <si>
+    <t>Grupo de edad</t>
+  </si>
+  <si>
+    <t>Numero usuario</t>
   </si>
 </sst>
 </file>
@@ -708,11 +727,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,19 +858,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -901,23 +906,53 @@
               <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -932,35 +967,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-85C0-4FE6-999A-B21D2B28D1B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-85C0-4FE6-999A-B21D2B28D1B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -992,57 +1029,137 @@
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$4:$A$6</c:f>
+              <c:f>Hoja1!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Guantes</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mandos</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$B$6</c:f>
+              <c:f>Hoja1!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,17 +1171,125 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:axId val="1682027632"/>
+        <c:axId val="1682030512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1682027632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682030512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1682030512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682027632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1767,7 +1992,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Laura Gómez" refreshedDate="45416.599107060189" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{260D3968-860A-44D9-B299-4FA4A22FFB7E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AD46" sheet="Respuestas de formulario 1"/>
+    <worksheetSource ref="B1:AE46" sheet="Respuestas de formulario 1"/>
   </cacheSource>
   <cacheFields count="30">
     <cacheField name="Marca temporal" numFmtId="164">
@@ -1777,7 +2002,23 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Edad" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="52"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="52" count="15">
+        <n v="22"/>
+        <n v="21"/>
+        <n v="19"/>
+        <n v="25"/>
+        <n v="20"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="42"/>
+        <n v="24"/>
+        <n v="23"/>
+        <n v="33"/>
+        <n v="29"/>
+        <n v="32"/>
+        <n v="45"/>
+        <n v="31"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Género" numFmtId="0">
       <sharedItems/>
@@ -1898,7 +2139,7 @@
   <r>
     <d v="2024-04-22T19:14:46"/>
     <s v="Usuario_01"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Suelo jugar mensualmente a videojuegos"/>
@@ -1930,7 +2171,7 @@
   <r>
     <d v="2024-04-22T20:04:16"/>
     <s v="Usuario_02"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Suelo jugar mensualmente a videojuegos"/>
@@ -1962,7 +2203,7 @@
   <r>
     <d v="2024-04-22T20:26:49"/>
     <s v="Usuario_03"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -1994,7 +2235,7 @@
   <r>
     <d v="2024-04-23T11:52:00"/>
     <s v="Usuario_04"/>
-    <n v="19"/>
+    <x v="2"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2026,7 +2267,7 @@
   <r>
     <d v="2024-04-23T12:15:31"/>
     <s v="Usuario_05"/>
-    <n v="25"/>
+    <x v="3"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2058,7 +2299,7 @@
   <r>
     <d v="2024-04-23T12:49:38"/>
     <s v="Usuario_06"/>
-    <n v="20"/>
+    <x v="4"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -2090,7 +2331,7 @@
   <r>
     <d v="2024-04-23T18:50:27"/>
     <s v="Usuario_07"/>
-    <n v="51"/>
+    <x v="5"/>
     <s v="Femenino"/>
     <s v="Doctorado"/>
     <s v="Suelo jugar mensualmente a videojuegos"/>
@@ -2122,7 +2363,7 @@
   <r>
     <d v="2024-04-23T19:26:58"/>
     <s v="Usuario_08"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2154,7 +2395,7 @@
   <r>
     <d v="2024-04-23T20:08:32"/>
     <s v="Usuario_09"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2186,7 +2427,7 @@
   <r>
     <d v="2024-04-24T10:36:32"/>
     <s v="Usuario_10"/>
-    <n v="52"/>
+    <x v="6"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -2218,7 +2459,7 @@
   <r>
     <d v="2024-04-24T11:19:23"/>
     <s v="Usuario_11"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2250,7 +2491,7 @@
   <r>
     <d v="2024-04-24T12:00:34"/>
     <s v="Usuario_12"/>
-    <n v="42"/>
+    <x v="7"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego varias veces a la semana"/>
@@ -2282,7 +2523,7 @@
   <r>
     <d v="2024-04-24T12:38:46"/>
     <s v="Usuario_13"/>
-    <n v="24"/>
+    <x v="8"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2314,7 +2555,7 @@
   <r>
     <d v="2024-04-24T13:06:59"/>
     <s v="Usuario_14"/>
-    <n v="24"/>
+    <x v="8"/>
     <s v="Femenino"/>
     <s v="Formación profesional"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -2346,7 +2587,7 @@
   <r>
     <d v="2024-04-24T17:21:47"/>
     <s v="Usuario_15"/>
-    <n v="23"/>
+    <x v="9"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Suelo jugar mensualmente a videojuegos"/>
@@ -2378,7 +2619,7 @@
   <r>
     <d v="2024-04-24T19:06:24"/>
     <s v="Usuario_16"/>
-    <n v="23"/>
+    <x v="9"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2410,7 +2651,7 @@
   <r>
     <d v="2024-04-24T19:54:25"/>
     <s v="Usuario_17"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Bachillerato"/>
     <s v="Juego todos los días"/>
@@ -2442,7 +2683,7 @@
   <r>
     <d v="2024-04-24T20:20:59"/>
     <s v="Usuario_18"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2474,7 +2715,7 @@
   <r>
     <d v="2024-04-25T11:12:44"/>
     <s v="Usuario_19"/>
-    <n v="23"/>
+    <x v="9"/>
     <s v="No Binario"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2506,7 +2747,7 @@
   <r>
     <d v="2024-04-25T12:03:15"/>
     <s v="Usuario_20"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2538,7 +2779,7 @@
   <r>
     <d v="2024-04-25T12:49:46"/>
     <s v="Usuario_21"/>
-    <n v="19"/>
+    <x v="2"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2570,7 +2811,7 @@
   <r>
     <d v="2024-04-25T13:04:22"/>
     <s v="Usuario_22"/>
-    <n v="33"/>
+    <x v="10"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -2602,7 +2843,7 @@
   <r>
     <d v="2024-04-25T19:27:51"/>
     <s v="Usuario_23"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2634,7 +2875,7 @@
   <r>
     <d v="2024-04-25T20:01:35"/>
     <s v="Usuario_24"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2666,7 +2907,7 @@
   <r>
     <d v="2024-04-26T22:53:34"/>
     <s v="Usuario_25"/>
-    <n v="20"/>
+    <x v="4"/>
     <s v="Femenino"/>
     <s v="Bachillerato"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -2698,7 +2939,7 @@
   <r>
     <d v="2024-04-26T14:21:22"/>
     <s v="Usuario_26"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2730,7 +2971,7 @@
   <r>
     <d v="2024-04-26T14:46:50"/>
     <s v="Usuario_27"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2762,7 +3003,7 @@
   <r>
     <d v="2024-04-26T16:55:57"/>
     <s v="usuario_28"/>
-    <n v="24"/>
+    <x v="8"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -2794,7 +3035,7 @@
   <r>
     <d v="2024-04-26T17:35:33"/>
     <s v="Usuario_29"/>
-    <n v="20"/>
+    <x v="4"/>
     <s v="No Binario"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2826,7 +3067,7 @@
   <r>
     <d v="2024-04-26T18:53:01"/>
     <s v="Usuario_30"/>
-    <n v="25"/>
+    <x v="3"/>
     <s v="Masculino"/>
     <s v="Master universitario"/>
     <s v="No se nada de videojuegos"/>
@@ -2858,7 +3099,7 @@
   <r>
     <d v="2024-04-26T18:58:06"/>
     <s v="Usuario_31"/>
-    <n v="29"/>
+    <x v="11"/>
     <s v="Masculino"/>
     <s v="Master universitario"/>
     <s v="Suelo jugar mensualmente a videojuegos"/>
@@ -2890,7 +3131,7 @@
   <r>
     <d v="2024-04-29T10:37:46"/>
     <s v="Usuario_32"/>
-    <n v="32"/>
+    <x v="12"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego todos los días"/>
@@ -2922,7 +3163,7 @@
   <r>
     <d v="2024-04-29T11:22:15"/>
     <s v="Usuario_33"/>
-    <n v="23"/>
+    <x v="9"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2954,7 +3195,7 @@
   <r>
     <d v="2024-04-29T12:02:11"/>
     <s v="Usuario_34"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Femenino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -2986,7 +3227,7 @@
   <r>
     <d v="2024-04-29T12:52:45"/>
     <s v="Usuario_35"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -3018,7 +3259,7 @@
   <r>
     <d v="2024-04-29T17:22:29"/>
     <s v="Usuario_36"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -3050,7 +3291,7 @@
   <r>
     <d v="2024-04-29T17:47:11"/>
     <s v="Usuario_37"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -3082,7 +3323,7 @@
   <r>
     <d v="2024-04-29T18:25:51"/>
     <s v="Usuario_38"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego todos los días"/>
@@ -3114,7 +3355,7 @@
   <r>
     <d v="2024-04-29T18:55:11"/>
     <s v="Usuario_39"/>
-    <n v="21"/>
+    <x v="1"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego varias veces a la semana"/>
@@ -3146,7 +3387,7 @@
   <r>
     <d v="2024-04-29T19:47:19"/>
     <s v="Usuario_40"/>
-    <n v="23"/>
+    <x v="9"/>
     <s v="Masculino"/>
     <s v="Grado universitario"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -3178,7 +3419,7 @@
   <r>
     <d v="2024-04-29T20:31:53"/>
     <s v="Ususario_41"/>
-    <n v="52"/>
+    <x v="6"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego todos los días"/>
@@ -3210,7 +3451,7 @@
   <r>
     <d v="2024-04-30T18:54:16"/>
     <s v="Usuario_42"/>
-    <n v="45"/>
+    <x v="13"/>
     <s v="Masculino"/>
     <s v="Doctorado"/>
     <s v="Juego todos los días"/>
@@ -3242,7 +3483,7 @@
   <r>
     <d v="2024-04-30T19:41:43"/>
     <s v="Usuario_43"/>
-    <n v="19"/>
+    <x v="2"/>
     <s v="Masculino"/>
     <s v="Bachillerato"/>
     <s v="Juego varias veces a la semana"/>
@@ -3274,7 +3515,7 @@
   <r>
     <d v="2024-04-30T20:20:15"/>
     <s v="Usuario_44"/>
-    <n v="31"/>
+    <x v="14"/>
     <s v="Femenino"/>
     <s v="Formación profesional"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -3306,7 +3547,7 @@
   <r>
     <d v="2024-04-30T20:52:34"/>
     <s v="Usuario_45"/>
-    <n v="22"/>
+    <x v="0"/>
     <s v="No Binario"/>
     <s v="Bachillerato"/>
     <s v="Juego alguna vez a videojuegos"/>
@@ -3339,12 +3580,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96C1AF19-C610-4FB6-AAF3-716B9DC2B275}" name="TablaDinámica5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="88">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96C1AF19-C610-4FB6-AAF3-716B9DC2B275}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="95">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3389,7 +3649,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -3419,14 +3679,53 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="26"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -3436,7 +3735,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Cuenta de Edad" fld="2" subtotal="count" baseField="0" baseItem="1"/>
+    <dataField name="Cuenta de Edad" fld="2" subtotal="count" baseField="2" baseItem="12"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="1" series="1">
@@ -3677,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C5385-EF93-4C51-9A2F-4874E2FB5494}">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="A10:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3692,7 +3991,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B3" t="s">
@@ -3700,26 +3999,130 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7</v>
+      <c r="A4" s="4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3">
-        <v>38</v>
+      <c r="A5" s="4">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B19">
         <v>45</v>
       </c>
     </row>
@@ -3734,146 +4137,155 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
-    <col min="12" max="36" width="18.88671875" customWidth="1"/>
+    <col min="1" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="13" max="31" width="18.88671875" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
+    <col min="33" max="36" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>RIGHT(C2,2)</f>
+        <v>01</v>
+      </c>
+      <c r="B2" s="2">
         <v>45404.801918645833</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
       <c r="L2" s="1">
         <v>5</v>
       </c>
@@ -3881,135 +4293,143 @@
         <v>5</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1">
-        <v>5</v>
-      </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" s="1">
         <v>2</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AB2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>IF(D2 &lt; 25, "Menor 25", "Mayor 25")</f>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>RIGHT(C3,2)</f>
+        <v>02</v>
+      </c>
+      <c r="B3" s="2">
         <v>45404.836290740743</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
       <c r="L3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
       <c r="S3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
         <v>5</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>34</v>
@@ -4018,72 +4438,80 @@
         <v>34</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" ref="AF3:AF46" si="0">IF(D3 &lt; 25, "Menor 25", "Mayor 25")</f>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>RIGHT(C4,2)</f>
+        <v>03</v>
+      </c>
+      <c r="B4" s="2">
         <v>45404.851952789351</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
       <c r="L4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
       <c r="S4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
@@ -4094,12 +4522,12 @@
       <c r="W4" s="1">
         <v>1</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z4" s="1" t="s">
         <v>34</v>
       </c>
@@ -4110,46 +4538,54 @@
         <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>RIGHT(C5,2)</f>
+        <v>04</v>
+      </c>
+      <c r="B5" s="2">
         <v>45405.494442349533</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
@@ -4157,49 +4593,49 @@
         <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="1">
-        <v>3</v>
-      </c>
       <c r="S5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1">
         <v>5</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>4</v>
-      </c>
-      <c r="X5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>36</v>
@@ -4207,41 +4643,49 @@
       <c r="AD5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>RIGHT(C6,2)</f>
+        <v>05</v>
+      </c>
+      <c r="B6" s="2">
         <v>45405.510771215282</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
@@ -4249,41 +4693,41 @@
         <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="1">
-        <v>5</v>
-      </c>
       <c r="S6" s="1">
         <v>5</v>
       </c>
       <c r="T6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>3</v>
-      </c>
-      <c r="X6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z6" s="1" t="s">
         <v>34</v>
       </c>
@@ -4291,91 +4735,99 @@
         <v>34</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>RIGHT(C7,2)</f>
+        <v>06</v>
+      </c>
+      <c r="B7" s="2">
         <v>45405.534464178243</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
       <c r="L7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>4</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="1">
-        <v>3</v>
-      </c>
       <c r="S7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>2</v>
-      </c>
-      <c r="X7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4835,7 @@
         <v>34</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>36</v>
@@ -4391,43 +4843,51 @@
       <c r="AD7" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>RIGHT(C8,2)</f>
+        <v>07</v>
+      </c>
+      <c r="B8" s="2">
         <v>45405.785035578709</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
       <c r="L8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
@@ -4436,38 +4896,38 @@
         <v>3</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="1">
-        <v>4</v>
-      </c>
       <c r="S8" s="1">
         <v>4</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z8" s="1" t="s">
         <v>34</v>
       </c>
@@ -4478,88 +4938,96 @@
         <v>34</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>RIGHT(C9,2)</f>
+        <v>08</v>
+      </c>
+      <c r="B9" s="2">
         <v>45405.810392465282</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="1">
-        <v>5</v>
-      </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="1">
-        <v>2</v>
-      </c>
       <c r="S9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>2</v>
-      </c>
-      <c r="X9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z9" s="1" t="s">
         <v>34</v>
       </c>
@@ -4567,7 +5035,7 @@
         <v>34</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>36</v>
@@ -4575,41 +5043,49 @@
       <c r="AD9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>RIGHT(C10,2)</f>
+        <v>09</v>
+      </c>
+      <c r="B10" s="2">
         <v>45405.839254143517</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
@@ -4617,41 +5093,41 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="1">
-        <v>3</v>
-      </c>
       <c r="S10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>2</v>
-      </c>
-      <c r="X10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z10" s="1" t="s">
         <v>34</v>
       </c>
@@ -4662,75 +5138,83 @@
         <v>34</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>RIGHT(C11,2)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>45406.442031736107</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="1">
-        <v>4</v>
-      </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>3</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="1">
-        <v>2</v>
-      </c>
       <c r="S11" s="1">
         <v>2</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
         <v>2</v>
@@ -4738,12 +5222,12 @@
       <c r="W11" s="1">
         <v>2</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z11" s="1" t="s">
         <v>34</v>
       </c>
@@ -4754,46 +5238,54 @@
         <v>34</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>RIGHT(C12,2)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>45406.471798935185</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
       <c r="L12" s="1">
         <v>5</v>
       </c>
@@ -4801,41 +5293,41 @@
         <v>5</v>
       </c>
       <c r="N12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1">
         <v>4</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="1">
-        <v>3</v>
-      </c>
       <c r="S12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4846,88 +5338,96 @@
         <v>34</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>RIGHT(C13,2)</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>45406.500394930554</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
       <c r="L13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
       <c r="N13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R13" s="1">
-        <v>5</v>
-      </c>
       <c r="S13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="1">
         <v>3</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>2</v>
-      </c>
-      <c r="X13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z13" s="1" t="s">
         <v>34</v>
       </c>
@@ -4938,51 +5438,59 @@
         <v>34</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>RIGHT(C14,2)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>45406.526924907404</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="1">
         <v>3</v>
@@ -4991,35 +5499,35 @@
         <v>3</v>
       </c>
       <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="1">
-        <v>3</v>
-      </c>
       <c r="S14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>2</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z14" s="1" t="s">
         <v>34</v>
       </c>
@@ -5030,46 +5538,54 @@
         <v>34</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>RIGHT(C15,2)</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>45406.546513310182</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
       <c r="L15" s="1">
         <v>4</v>
       </c>
@@ -5077,41 +5593,41 @@
         <v>4</v>
       </c>
       <c r="N15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
       </c>
       <c r="P15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="1">
-        <v>2</v>
-      </c>
       <c r="S15" s="1">
         <v>2</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
         <v>2</v>
       </c>
       <c r="W15" s="1">
-        <v>4</v>
-      </c>
-      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z15" s="1" t="s">
         <v>34</v>
       </c>
@@ -5122,88 +5638,96 @@
         <v>34</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>RIGHT(C16,2)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>45406.72346202546</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="1">
-        <v>4</v>
-      </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R16" s="1">
-        <v>5</v>
-      </c>
       <c r="S16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>3</v>
-      </c>
-      <c r="X16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z16" s="1" t="s">
         <v>34</v>
       </c>
@@ -5214,88 +5738,96 @@
         <v>34</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>RIGHT(C17,2)</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>45406.796109016199</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="1">
-        <v>4</v>
-      </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R17" s="1">
-        <v>4</v>
-      </c>
       <c r="S17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z17" s="1" t="s">
         <v>34</v>
       </c>
@@ -5306,96 +5838,104 @@
         <v>34</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>RIGHT(C18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>45406.82945907407</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="1">
-        <v>4</v>
-      </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R18" s="1">
-        <v>2</v>
-      </c>
       <c r="S18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U18" s="1">
         <v>2</v>
       </c>
       <c r="V18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18" s="1">
-        <v>2</v>
-      </c>
-      <c r="X18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>36</v>
@@ -5403,88 +5943,96 @@
       <c r="AD18" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>RIGHT(C19,2)</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>45406.847907881944</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R19" s="1">
-        <v>4</v>
-      </c>
       <c r="S19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" s="1">
         <v>3</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>4</v>
-      </c>
-      <c r="X19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>36</v>
@@ -5495,83 +6043,91 @@
       <c r="AD19" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>RIGHT(C20,2)</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>45407.467180717591</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
       <c r="L20" s="1">
         <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R20" s="1">
-        <v>5</v>
-      </c>
       <c r="S20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" s="1">
-        <v>2</v>
-      </c>
-      <c r="X20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z20" s="1" t="s">
         <v>34</v>
       </c>
@@ -5582,180 +6138,196 @@
         <v>34</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>RIGHT(C21,2)</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>45407.502251979167</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
       <c r="L21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R21" s="1">
-        <v>3</v>
-      </c>
       <c r="S21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="1">
         <v>2</v>
       </c>
       <c r="U21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W21" s="1">
-        <v>3</v>
-      </c>
-      <c r="X21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>RIGHT(C22,2)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>45407.534555925929</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
       <c r="L22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="1">
         <v>2</v>
       </c>
       <c r="P22" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
       <c r="S22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1">
         <v>1</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z22" s="1" t="s">
         <v>34</v>
       </c>
@@ -5766,46 +6338,54 @@
         <v>34</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>RIGHT(C23,2)</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>45407.544693298609</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>33</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="1">
-        <v>5</v>
-      </c>
       <c r="L23" s="1">
         <v>5</v>
       </c>
@@ -5813,43 +6393,43 @@
         <v>5</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="1">
-        <v>3</v>
-      </c>
       <c r="S23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>2</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>36</v>
@@ -5863,67 +6443,75 @@
       <c r="AD23" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>RIGHT(C24,2)</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>45407.81100616898</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="1">
-        <v>5</v>
-      </c>
       <c r="L24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
       <c r="S24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
@@ -5934,12 +6522,12 @@
       <c r="W24" s="1">
         <v>1</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5950,96 +6538,104 @@
         <v>34</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>RIGHT(C25,2)</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>45407.834437812504</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="1">
-        <v>4</v>
-      </c>
       <c r="L25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
         <v>3</v>
       </c>
       <c r="N25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R25" s="1">
-        <v>4</v>
-      </c>
       <c r="S25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" s="1">
         <v>2</v>
       </c>
       <c r="V25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W25" s="1">
-        <v>4</v>
-      </c>
-      <c r="X25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>36</v>
@@ -6047,88 +6643,96 @@
       <c r="AD25" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>RIGHT(C26,2)</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
         <v>45408.953869722223</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1">
         <v>2</v>
       </c>
       <c r="N26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P26" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="1">
-        <v>4</v>
-      </c>
       <c r="S26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W26" s="1">
-        <v>4</v>
-      </c>
-      <c r="X26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Y26" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>36</v>
@@ -6139,88 +6743,96 @@
       <c r="AD26" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF26" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>RIGHT(C27,2)</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>45408.598172986109</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="1">
-        <v>4</v>
-      </c>
       <c r="L27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="1">
-        <v>4</v>
-      </c>
       <c r="S27" s="1">
         <v>4</v>
       </c>
       <c r="T27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W27" s="1">
         <v>4</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Y27" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>36</v>
@@ -6231,41 +6843,49 @@
       <c r="AD27" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>RIGHT(C28,2)</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
         <v>45408.615854606483</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>21</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="1">
-        <v>5</v>
-      </c>
       <c r="L28" s="1">
         <v>5</v>
       </c>
@@ -6273,41 +6893,41 @@
         <v>5</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1">
         <v>4</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="1">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="1">
-        <v>5</v>
-      </c>
       <c r="S28" s="1">
         <v>5</v>
       </c>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U28" s="1">
         <v>1</v>
       </c>
       <c r="V28" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W28" s="1">
-        <v>2</v>
-      </c>
-      <c r="X28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z28" s="1" t="s">
         <v>34</v>
       </c>
@@ -6315,99 +6935,107 @@
         <v>34</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>RIGHT(C29,2)</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>45408.705520428237</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="1">
-        <v>4</v>
-      </c>
       <c r="L29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="1">
-        <v>2</v>
-      </c>
       <c r="S29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1">
         <v>4</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>36</v>
@@ -6415,83 +7043,91 @@
       <c r="AD29" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF29" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>RIGHT(C30,2)</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
         <v>45408.73302594907</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>20</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="1">
-        <v>5</v>
-      </c>
       <c r="L30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1">
         <v>5</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R30" s="1">
-        <v>2</v>
-      </c>
       <c r="S30" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1">
         <v>3</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z30" s="1" t="s">
         <v>34</v>
       </c>
@@ -6499,7 +7135,7 @@
         <v>34</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>36</v>
@@ -6507,83 +7143,91 @@
       <c r="AD30" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF30" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>RIGHT(C31,2)</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>45408.786822106485</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>25</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="1">
-        <v>4</v>
-      </c>
       <c r="L31" s="1">
         <v>4</v>
       </c>
       <c r="M31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R31" s="1">
-        <v>2</v>
-      </c>
       <c r="S31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31" s="1">
         <v>2</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z31" s="1" t="s">
         <v>34</v>
       </c>
@@ -6594,88 +7238,96 @@
         <v>34</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>RIGHT(C32,2)</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>45408.790345555557</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>29</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="1">
-        <v>3</v>
-      </c>
       <c r="L32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
         <v>5</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R32" s="1">
-        <v>4</v>
-      </c>
       <c r="S32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1">
         <v>3</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="X32" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z32" s="1" t="s">
         <v>34</v>
       </c>
@@ -6686,88 +7338,96 @@
         <v>34</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD32" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>RIGHT(C33,2)</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>45411.442897546294</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="1">
-        <v>5</v>
-      </c>
       <c r="L33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="1">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="R33" s="1">
-        <v>5</v>
-      </c>
       <c r="S33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
-      </c>
-      <c r="X33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z33" s="1" t="s">
         <v>34</v>
       </c>
@@ -6775,7 +7435,7 @@
         <v>34</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>36</v>
@@ -6783,83 +7443,91 @@
       <c r="AD33" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>RIGHT(C34,2)</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
         <v>45411.473784803238</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>23</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="1">
-        <v>4</v>
-      </c>
       <c r="L34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" s="1">
         <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R34" s="1">
-        <v>3</v>
-      </c>
       <c r="S34" s="1">
         <v>3</v>
       </c>
       <c r="T34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W34" s="1">
-        <v>2</v>
-      </c>
-      <c r="X34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Y34" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z34" s="1" t="s">
         <v>34</v>
       </c>
@@ -6867,91 +7535,99 @@
         <v>34</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>RIGHT(C35,2)</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
         <v>45411.501517291668</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>21</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="1">
-        <v>5</v>
-      </c>
       <c r="L35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O35" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
         <v>5</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R35" s="1">
-        <v>3</v>
-      </c>
       <c r="S35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
-        <v>2</v>
-      </c>
-      <c r="X35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6962,96 +7638,104 @@
         <v>34</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD35" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF35" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>RIGHT(C36,2)</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
         <v>45411.536629502312</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>22</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="1">
-        <v>4</v>
-      </c>
       <c r="L36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>4</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R36" s="1">
-        <v>5</v>
-      </c>
       <c r="S36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W36" s="1">
-        <v>2</v>
-      </c>
-      <c r="X36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>36</v>
@@ -7059,83 +7743,91 @@
       <c r="AD36" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF36" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>RIGHT(C37,2)</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
         <v>45411.723950949076</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>21</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="1">
-        <v>5</v>
-      </c>
       <c r="L37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1">
         <v>4</v>
       </c>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R37" s="1">
-        <v>5</v>
-      </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
         <v>5</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z37" s="1" t="s">
         <v>36</v>
       </c>
@@ -7146,46 +7838,54 @@
         <v>36</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>RIGHT(C38,2)</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
         <v>45411.741094814817</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>22</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="1">
-        <v>5</v>
-      </c>
       <c r="L38" s="1">
         <v>5</v>
       </c>
@@ -7193,25 +7893,25 @@
         <v>5</v>
       </c>
       <c r="N38" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O38" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
       <c r="S38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38" s="1">
         <v>1</v>
@@ -7222,12 +7922,12 @@
       <c r="W38" s="1">
         <v>1</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z38" s="1" t="s">
         <v>34</v>
       </c>
@@ -7238,88 +7938,96 @@
         <v>34</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF38" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>RIGHT(C39,2)</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
         <v>45411.76794719907</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>21</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="1">
-        <v>5</v>
-      </c>
       <c r="L39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O39" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P39" s="1">
         <v>4</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="1">
+        <v>4</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R39" s="1">
-        <v>2</v>
-      </c>
       <c r="S39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W39" s="1">
-        <v>2</v>
-      </c>
-      <c r="X39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z39" s="1" t="s">
         <v>34</v>
       </c>
@@ -7330,46 +8038,54 @@
         <v>34</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF39" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>RIGHT(C40,2)</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
         <v>45411.788316122686</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>21</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="1">
-        <v>5</v>
-      </c>
       <c r="L40" s="1">
         <v>5</v>
       </c>
@@ -7377,41 +8093,41 @@
         <v>5</v>
       </c>
       <c r="N40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R40" s="1">
-        <v>2</v>
-      </c>
       <c r="S40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T40" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>2</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z40" s="1" t="s">
         <v>34</v>
       </c>
@@ -7427,83 +8143,91 @@
       <c r="AD40" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AE40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF40" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>RIGHT(C41,2)</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
         <v>45411.824528043981</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="1">
-        <v>3</v>
-      </c>
       <c r="L41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P41" s="1">
         <v>4</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="1">
+        <v>4</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R41" s="1">
-        <v>2</v>
-      </c>
       <c r="S41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="1">
         <v>1</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Y41" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z41" s="1" t="s">
         <v>34</v>
       </c>
@@ -7514,67 +8238,75 @@
         <v>34</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD41" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>RIGHT(C42,2)</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
         <v>45411.855478460653</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>52</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="1">
-        <v>4</v>
-      </c>
       <c r="L42" s="1">
         <v>4</v>
       </c>
       <c r="M42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R42" s="1">
-        <v>2</v>
-      </c>
       <c r="S42" s="1">
         <v>2</v>
       </c>
@@ -7582,20 +8314,20 @@
         <v>2</v>
       </c>
       <c r="U42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
         <v>2</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z42" s="1" t="s">
         <v>34</v>
       </c>
@@ -7609,43 +8341,51 @@
         <v>34</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>RIGHT(C43,2)</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
         <v>45412.787686759257</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>45</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="1">
-        <v>4</v>
-      </c>
       <c r="L43" s="1">
         <v>4</v>
       </c>
@@ -7653,46 +8393,46 @@
         <v>4</v>
       </c>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R43" s="1">
-        <v>2</v>
-      </c>
       <c r="S43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U43" s="1">
         <v>2</v>
       </c>
       <c r="V43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W43" s="1">
-        <v>3</v>
-      </c>
-      <c r="X43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>36</v>
@@ -7703,91 +8443,99 @@
       <c r="AD43" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>RIGHT(C44,2)</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
         <v>45412.820634131946</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="1">
-        <v>4</v>
-      </c>
       <c r="L44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R44" s="1">
-        <v>3</v>
-      </c>
       <c r="S44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44" s="1">
         <v>2</v>
       </c>
       <c r="U44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>3</v>
-      </c>
-      <c r="X44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Y44" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>36</v>
@@ -7795,91 +8543,99 @@
       <c r="AD44" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AE44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF44" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>RIGHT(C45,2)</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
         <v>45412.847395798613</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>31</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="1">
-        <v>4</v>
-      </c>
       <c r="L45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O45" s="1">
         <v>3</v>
       </c>
       <c r="P45" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R45" s="1">
-        <v>2</v>
-      </c>
       <c r="S45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W45" s="1">
         <v>3</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Y45" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>34</v>
@@ -7887,83 +8643,91 @@
       <c r="AD45" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AE45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF45" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayor 25</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>RIGHT(C46,2)</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
         <v>45412.869843495369</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>22</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="1">
-        <v>5</v>
-      </c>
       <c r="L46" s="1">
         <v>5</v>
       </c>
       <c r="M46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P46" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R46" s="1">
-        <v>3</v>
-      </c>
       <c r="S46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>2</v>
-      </c>
-      <c r="X46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Y46" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Z46" s="1" t="s">
         <v>34</v>
       </c>
@@ -7971,13 +8735,26 @@
         <v>34</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AD46" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor 25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>STDEV(D2:D46)</f>
+        <v>8.8067352553932174</v>
       </c>
     </row>
   </sheetData>
